--- a/biology/Botanique/Viola_eminii/Viola_eminii.xlsx
+++ b/biology/Botanique/Viola_eminii/Viola_eminii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola eminii est une espèce végétale de la famille des Violaceae. Cette plante pousse dans les clairières et bordures des forêts de montagnes, de l'est de la République démocratique du Congo jusqu'au sud du Soudan, à l'Ouganda et au Kenya.
 </t>
